--- a/q-excel-correlation-heatmap.xlsx
+++ b/q-excel-correlation-heatmap.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Adrash\TDS GA\week7\question-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F61F66-2AB7-4DA8-9739-4E7A70269553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B9D53-E534-47FA-A19D-E6F0A5D3D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Supplier_Lead_Time</t>
   </si>
@@ -47,6 +48,21 @@
   </si>
   <si>
     <t>Cost_Per_Unit</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
   </si>
 </sst>
 </file>
@@ -118,15 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874BEB17-CEDA-4A64-9ACD-764B1439B5A8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -484,100 +504,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.42722303077246027</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-0.89094778067217451</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>-0.43858337193247632</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-0.93287149592670171</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>-0.41728778894606317</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.84407974159059163</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.96466692761112638</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.41023129666087776</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-0.85815204348941276</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-0.92177143295597386</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -600,14 +620,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9FBB4-5207-4EC8-87ED-48D5EFD39AF1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.42722303077246027</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.89094778067217451</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.43858337193247632</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-0.93287149592670171</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.41728778894606317</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.84407974159059163</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.96466692761112638</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.41023129666087776</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.85815204348941276</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-0.92177143295597386</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -616,7 +750,7 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>18.7</v>
       </c>
@@ -650,7 +784,7 @@
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.3</v>
       </c>
@@ -667,7 +801,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19.100000000000001</v>
       </c>
@@ -684,7 +818,7 @@
         <v>33.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.4</v>
       </c>
@@ -701,7 +835,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.6</v>
       </c>
@@ -718,7 +852,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14.4</v>
       </c>
@@ -735,7 +869,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -752,7 +886,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17.399999999999999</v>
       </c>
@@ -769,7 +903,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12.8</v>
       </c>
@@ -786,7 +920,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18.399999999999999</v>
       </c>
@@ -803,7 +937,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14.5</v>
       </c>
@@ -820,7 +954,7 @@
         <v>28.22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.3</v>
       </c>
@@ -837,7 +971,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6.7</v>
       </c>
@@ -854,7 +988,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.8</v>
       </c>
@@ -871,7 +1005,7 @@
         <v>22.34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18.100000000000001</v>
       </c>
@@ -888,7 +1022,7 @@
         <v>35.22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13.3</v>
       </c>
@@ -905,7 +1039,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12.6</v>
       </c>
@@ -922,7 +1056,7 @@
         <v>26.52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.4</v>
       </c>
@@ -939,7 +1073,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.5</v>
       </c>
@@ -956,7 +1090,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18.5</v>
       </c>
@@ -973,7 +1107,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13.3</v>
       </c>
@@ -990,7 +1124,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15.1</v>
       </c>
@@ -1007,7 +1141,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17.899999999999999</v>
       </c>
@@ -1024,7 +1158,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1041,7 +1175,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15.4</v>
       </c>
@@ -1058,7 +1192,7 @@
         <v>29.11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.5</v>
       </c>
@@ -1075,7 +1209,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17.2</v>
       </c>
@@ -1092,7 +1226,7 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7.3</v>
       </c>
@@ -1109,7 +1243,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10.8</v>
       </c>
@@ -1126,7 +1260,7 @@
         <v>25.31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8.1</v>
       </c>
@@ -1143,7 +1277,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14.4</v>
       </c>
@@ -1160,7 +1294,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1177,7 +1311,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18.399999999999999</v>
       </c>
@@ -1194,7 +1328,7 @@
         <v>35.01</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17.899999999999999</v>
       </c>
@@ -1211,7 +1345,7 @@
         <v>34.869999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1228,7 +1362,7 @@
         <v>25.05</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>17.600000000000001</v>
       </c>
@@ -1245,7 +1379,7 @@
         <v>34.49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16.899999999999999</v>
       </c>
@@ -1262,7 +1396,7 @@
         <v>32.82</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12.1</v>
       </c>
@@ -1279,7 +1413,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12.4</v>
       </c>
@@ -1296,7 +1430,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
@@ -1313,7 +1447,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.6</v>
       </c>
@@ -1330,7 +1464,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11.9</v>
       </c>
@@ -1347,7 +1481,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9.6</v>
       </c>
@@ -1364,7 +1498,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.6</v>
       </c>
@@ -1381,7 +1515,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8.6999999999999993</v>
       </c>
@@ -1398,7 +1532,7 @@
         <v>22.69</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6.3</v>
       </c>
@@ -1415,7 +1549,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16.2</v>
       </c>
@@ -1432,7 +1566,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12.1</v>
       </c>
@@ -1449,7 +1583,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>11.4</v>
       </c>
@@ -1466,7 +1600,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>17.899999999999999</v>
       </c>
@@ -1483,7 +1617,7 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12.1</v>
       </c>
@@ -1500,7 +1634,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.2</v>
       </c>
@@ -1517,7 +1651,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11.6</v>
       </c>

--- a/q-excel-correlation-heatmap.xlsx
+++ b/q-excel-correlation-heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Adrash\TDS GA\week7\question-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B9D53-E534-47FA-A19D-E6F0A5D3D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DFB656-9423-42BC-9163-1BCCA69195E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,11 +142,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,111 +618,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9FBB4-5207-4EC8-87ED-48D5EFD39AF1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="8.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>0.42722303077246027</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>-0.89094778067217451</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>-0.43858337193247632</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>-0.93287149592670171</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>-0.41728778894606317</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>0.84407974159059163</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>0.96466692761112638</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>0.41023129666087776</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>-0.85815204348941276</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>-0.92177143295597386</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/q-excel-correlation-heatmap.xlsx
+++ b/q-excel-correlation-heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Adrash\TDS GA\week7\question-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DFB656-9423-42BC-9163-1BCCA69195E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C6EAC-8AA6-4F67-912A-D9B68AEDBA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +87,36 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -134,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +172,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,99 +659,109 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.69921875" customWidth="1"/>
+    <col min="1" max="6" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>0.42722303077246027</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>-0.89094778067217451</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>-0.43858337193247632</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>-0.93287149592670171</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>-0.41728778894606317</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.84407974159059163</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>0.96466692761112638</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.41023129666087776</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>-0.85815204348941276</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>-0.92177143295597386</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
